--- a/Tools/MAP_REPORT/MAP_ENTSOE_EIC.xlsx
+++ b/Tools/MAP_REPORT/MAP_ENTSOE_EIC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kristjan.vilgo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\USVDM\Tools\MAP_REPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="218">
   <si>
     <t>10X1001A1001A39W</t>
   </si>
@@ -642,6 +642,42 @@
   </si>
   <si>
     <t>CREOS Luxembourg</t>
+  </si>
+  <si>
+    <t>CGMES_TSO_NAME</t>
+  </si>
+  <si>
+    <t>AST</t>
+  </si>
+  <si>
+    <t>TENNET</t>
+  </si>
+  <si>
+    <t>STATTNET</t>
+  </si>
+  <si>
+    <t>MEPSO</t>
+  </si>
+  <si>
+    <t>TEIAS</t>
+  </si>
+  <si>
+    <t>KOSOVA</t>
+  </si>
+  <si>
+    <t>50HERTZ</t>
+  </si>
+  <si>
+    <t>AMPRION</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>TRANSELECTRICA</t>
+  </si>
+  <si>
+    <t>TTG</t>
   </si>
 </sst>
 </file>
@@ -960,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -974,10 +1010,11 @@
     <col min="5" max="5" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="61.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -999,8 +1036,11 @@
       <c r="H1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1025,8 +1065,11 @@
       <c r="H2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1051,8 +1094,12 @@
       <c r="H3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I41" si="0">F3</f>
+        <v>ENERGINET-DK</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1077,8 +1124,12 @@
       <c r="H4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>ENERGINET-DK</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1103,8 +1154,12 @@
       <c r="H5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>FINGRID</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1129,8 +1184,12 @@
       <c r="H6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>MAVIR</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1155,8 +1214,11 @@
       <c r="H7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1181,8 +1243,11 @@
       <c r="H8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1207,8 +1272,11 @@
       <c r="H9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1233,8 +1301,12 @@
       <c r="H10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>ELERING</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1259,8 +1331,12 @@
       <c r="H11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>SVK</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1285,8 +1361,11 @@
       <c r="H12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1311,8 +1390,12 @@
       <c r="H13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>EIRGRID</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1337,8 +1420,12 @@
       <c r="H14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>LITGRID</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1363,8 +1450,11 @@
       <c r="H15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1389,8 +1479,12 @@
       <c r="H16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>OST-ALBANIA</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1415,8 +1509,12 @@
       <c r="H17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>APG</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1441,8 +1539,12 @@
       <c r="H18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>NOSBIH</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1467,8 +1569,12 @@
       <c r="H19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>ESO</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1493,8 +1599,12 @@
       <c r="H20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>SWISSGRID</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1519,8 +1629,12 @@
       <c r="H21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>CGES</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1545,8 +1659,12 @@
       <c r="H22" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>EMS</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1571,8 +1689,12 @@
       <c r="H23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>CEPS</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1597,8 +1719,12 @@
       <c r="H24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>ENBW_TNG</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1623,8 +1749,11 @@
       <c r="H25" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1649,8 +1778,11 @@
       <c r="H26" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1675,8 +1807,11 @@
       <c r="H27" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1701,8 +1836,12 @@
       <c r="H28" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>REE</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1727,8 +1866,12 @@
       <c r="H29" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>RTE</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1753,8 +1896,11 @@
       <c r="H30" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1779,8 +1925,12 @@
       <c r="H31" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>HOPS</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1805,8 +1955,11 @@
       <c r="H32" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1831,8 +1984,12 @@
       <c r="H33" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>PSE</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1857,8 +2014,12 @@
       <c r="H34" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>REN</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1883,8 +2044,11 @@
       <c r="H35" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1909,8 +2073,11 @@
       <c r="H36" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1935,8 +2102,12 @@
       <c r="H37" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>ELES</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1961,8 +2132,12 @@
       <c r="H38" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>SEPS</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1987,8 +2162,11 @@
       <c r="H39" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2013,8 +2191,12 @@
       <c r="H40" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>UA_WPS</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2038,6 +2220,10 @@
       </c>
       <c r="H41" t="s">
         <v>21</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
+        <v>CREOS</v>
       </c>
     </row>
   </sheetData>
